--- a/Assets/Excel/Item.xlsx
+++ b/Assets/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C35B54-FB78-451F-A56D-AE6C74E63648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23672831-6208-44D8-8776-1048A11D26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,14 @@
   </si>
   <si>
     <t>装备名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在背包中可见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C22"/>
+      <selection activeCell="D5" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,7 +779,7 @@
     <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,8 +795,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -804,13 +815,16 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -823,8 +837,11 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -840,8 +857,11 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -857,8 +877,11 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -874,8 +897,11 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -891,8 +917,11 @@
       <c r="E8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -908,8 +937,11 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -925,8 +957,11 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -942,8 +977,11 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -959,8 +997,11 @@
       <c r="E12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -976,8 +1017,11 @@
       <c r="E13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -993,8 +1037,11 @@
       <c r="E14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1010,8 +1057,11 @@
       <c r="E15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1027,8 +1077,11 @@
       <c r="E16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1044,8 +1097,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1061,8 +1117,11 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1078,8 +1137,11 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1095,8 +1157,11 @@
       <c r="E20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1112,8 +1177,11 @@
       <c r="E21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1129,8 +1197,11 @@
       <c r="E22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1146,8 +1217,11 @@
       <c r="E23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1163,8 +1237,11 @@
       <c r="E24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1180,8 +1257,11 @@
       <c r="E25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1197,8 +1277,11 @@
       <c r="E26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1214,8 +1297,11 @@
       <c r="E27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1231,8 +1317,11 @@
       <c r="E28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1248,8 +1337,11 @@
       <c r="E29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1265,8 +1357,11 @@
       <c r="E30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1282,8 +1377,11 @@
       <c r="E31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1299,8 +1397,11 @@
       <c r="E32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1316,8 +1417,11 @@
       <c r="E33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1332,6 +1436,9 @@
       </c>
       <c r="E34" t="s">
         <v>102</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1453,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel/Item.xlsx
+++ b/Assets/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23672831-6208-44D8-8776-1048A11D26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44836302-07E8-442C-A5AB-8078FC98FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267C607F-6656-404A-92F9-8E69727CE367}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/Item.xlsx
+++ b/Assets/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44836302-07E8-442C-A5AB-8078FC98FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD5E1EA-39D1-4EBE-B2F6-AC8FB9B46EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25290" windowHeight="11685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,14 @@
   </si>
   <si>
     <t>是否在背包中可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23:C34"/>
     </sheetView>
   </sheetViews>
@@ -1450,229 +1458,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267C607F-6656-404A-92F9-8E69727CE367}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1000</v>
       </c>
     </row>

--- a/Assets/Excel/Item.xlsx
+++ b/Assets/Excel/Item.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD5E1EA-39D1-4EBE-B2F6-AC8FB9B46EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE493DB7-737D-4175-A1D4-8738A6F935E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25290" windowHeight="11685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="3915" windowWidth="18915" windowHeight="10770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="EquipInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="RolePieceInfo" sheetId="7" r:id="rId2"/>
+    <sheet name="EquipInfo" sheetId="2" r:id="rId3"/>
+    <sheet name="ExpInfo" sheetId="3" r:id="rId4"/>
+    <sheet name="EquipExpInfo" sheetId="4" r:id="rId5"/>
+    <sheet name="ShopItemInfo" sheetId="5" r:id="rId6"/>
+    <sheet name="ShopTypeInfo" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="196">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +452,350 @@
   </si>
   <si>
     <t>装备道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipExp0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipExp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipExp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipExp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最上级经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Icon_ExpItem_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Icon_ExpItem_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Icon_ExpItem_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Icon_ExpItem_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currencyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopBagId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3,9,27,3,9,27,3,9,27,3,9,27}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9,10,11,12,13,14,15,16,17,18,19,20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100,100,100,100,100,100,100,100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArisPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AruPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AyanePiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AzusaPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HihumiPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HinaPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoshinoPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KoharuPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakiPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MidoriPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MomoiPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonomiPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerikaPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShirokoPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆八魔亚瑠碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天童爱丽丝碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥空绫音碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白洲梓碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YuukaPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸟游星野碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六夜野乃美碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑见茜香碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂狼白子碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空崎阳奈碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小涂真纪碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才羽绿碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才羽桃井碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早濑优香碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下江小春碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿慈谷日富美碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Aris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Ayane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Hoshino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Nonomi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Serika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Shiroko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Aru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Hina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Maki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Midori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Momoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Yuuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Azusa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Hihumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Icon_SecretStone_Koharu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pieceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星需要的碎片id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +1133,7 @@
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -894,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -914,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -934,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -954,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -974,16 +1323,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -994,16 +1343,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1014,16 +1363,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1034,16 +1383,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1051,19 +1400,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1071,19 +1420,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1091,19 +1440,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1111,19 +1460,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1131,19 +1480,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1151,19 +1500,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1171,19 +1520,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1191,19 +1540,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1211,19 +1560,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1231,19 +1580,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1251,19 +1600,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1271,19 +1620,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1291,19 +1640,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1311,19 +1660,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1331,19 +1680,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1351,19 +1700,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1371,19 +1720,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1391,19 +1740,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1411,19 +1760,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1431,21 +1780,401 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>210</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
         <v>102</v>
       </c>
-      <c r="F34">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>301</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>302</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>304</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>305</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>306</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>307</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>308</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>309</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>310</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>311</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>312</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>313</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>314</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>315</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53">
         <v>1</v>
       </c>
     </row>
@@ -1457,11 +2186,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B4D4-AACD-4F60-AC05-8C1FDC1E4C2A}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1005</v>
+      </c>
+      <c r="B9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1006</v>
+      </c>
+      <c r="B10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1007</v>
+      </c>
+      <c r="B11">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1008</v>
+      </c>
+      <c r="B12">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1009</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1010</v>
+      </c>
+      <c r="B14">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1011</v>
+      </c>
+      <c r="B15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1012</v>
+      </c>
+      <c r="B16">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1013</v>
+      </c>
+      <c r="B17">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1014</v>
+      </c>
+      <c r="B18">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1015</v>
+      </c>
+      <c r="B19">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267C607F-6656-404A-92F9-8E69727CE367}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1531,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1548,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1565,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1582,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -1599,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
@@ -1616,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
@@ -1633,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1650,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1667,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -1684,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -1701,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
@@ -1718,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -1728,6 +2625,773 @@
       </c>
       <c r="E16">
         <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A773106-D567-44D3-9000-9AC2FDFC62CC}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2F7E56-C7AA-45D7-A4B1-2239672894D7}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8641A42-1D94-4274-A316-8979D31605D5}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>206</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E29986-846E-4A75-B6DE-C9582FC9F3C9}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
